--- a/dados/csv/2023/analise_descritiva/dados/aon-mencoes.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/aon-mencoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -490,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,11 +524,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -559,13 +583,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>67</v>
@@ -595,27 +637,45 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L2" s="3">
-        <v>86.28489520037526</v>
-      </c>
-      <c r="M2" s="1">
+        <v>78.57672143399174</v>
+      </c>
+      <c r="M2" s="3">
+        <v>23.63877229505447</v>
+      </c>
+      <c r="N2" s="3">
+        <v>32.2694534583262</v>
+      </c>
+      <c r="O2" s="3">
+        <v>151.1292159501072</v>
+      </c>
+      <c r="P2" s="1">
         <v>35293</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>578.5737704918033</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="1">
+        <v>929.9762624034444</v>
+      </c>
+      <c r="S2" s="1">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U2">
         <v>2013</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>156</v>
@@ -645,27 +705,45 @@
         <v>154365.9837040891</v>
       </c>
       <c r="L3" s="3">
-        <v>82.83823479360029</v>
-      </c>
-      <c r="M3" s="1">
+        <v>87.11000777143747</v>
+      </c>
+      <c r="M3" s="3">
+        <v>35.07795799700576</v>
+      </c>
+      <c r="N3" s="3">
+        <v>33.80063482849972</v>
+      </c>
+      <c r="O3" s="3">
+        <v>257.7853211115706</v>
+      </c>
+      <c r="P3" s="1">
         <v>34535</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>274.0873015873016</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>239.4804716828918</v>
+      </c>
+      <c r="S3" s="1">
+        <v>36</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1815</v>
+      </c>
+      <c r="U3">
         <v>2014</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>400</v>
@@ -695,27 +773,45 @@
         <v>163173.270269744</v>
       </c>
       <c r="L4" s="3">
-        <v>92.63036679831843</v>
-      </c>
-      <c r="M4" s="1">
+        <v>95.92481440598637</v>
+      </c>
+      <c r="M4" s="3">
+        <v>62.28205825061158</v>
+      </c>
+      <c r="N4" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O4" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="P4" s="1">
         <v>70527</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>287.865306122449</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="1">
+        <v>263.6097661931087</v>
+      </c>
+      <c r="S4" s="1">
+        <v>11</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1588</v>
+      </c>
+      <c r="U4">
         <v>2012</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>123</v>
@@ -745,27 +841,45 @@
         <v>125535.7448333134</v>
       </c>
       <c r="L5" s="3">
-        <v>89.34822657184763</v>
-      </c>
-      <c r="M5" s="1">
+        <v>94.90136016654937</v>
+      </c>
+      <c r="M5" s="3">
+        <v>42.06922775736284</v>
+      </c>
+      <c r="N5" s="3">
+        <v>37.30506273801686</v>
+      </c>
+      <c r="O5" s="3">
+        <v>323.2845357010965</v>
+      </c>
+      <c r="P5" s="1">
         <v>25810</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>314.7560975609756</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>268.2786261681259</v>
+      </c>
+      <c r="S5" s="1">
+        <v>22</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1539</v>
+      </c>
+      <c r="U5">
         <v>2012</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>279</v>
@@ -795,27 +909,45 @@
         <v>264585.9073482947</v>
       </c>
       <c r="L6" s="3">
-        <v>89.17093558435907</v>
-      </c>
-      <c r="M6" s="1">
+        <v>88.02163529111277</v>
+      </c>
+      <c r="M6" s="3">
+        <v>33.79527781109714</v>
+      </c>
+      <c r="N6" s="3">
+        <v>23.15006403629383</v>
+      </c>
+      <c r="O6" s="3">
+        <v>213.9734252018395</v>
+      </c>
+      <c r="P6" s="1">
         <v>54018</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>300.1</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>283.7555817382237</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1711</v>
+      </c>
+      <c r="U6">
         <v>2012</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>296</v>
@@ -845,27 +977,45 @@
         <v>537544.5528256212</v>
       </c>
       <c r="L7" s="3">
-        <v>87.79024763378376</v>
-      </c>
-      <c r="M7" s="1">
+        <v>94.68234986858575</v>
+      </c>
+      <c r="M7" s="3">
+        <v>69.67419713686293</v>
+      </c>
+      <c r="N7" s="3">
+        <v>30.56837093393595</v>
+      </c>
+      <c r="O7" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="P7" s="1">
         <v>61529</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>343.7374301675978</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="1">
+        <v>493.6165473708339</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>5879</v>
+      </c>
+      <c r="U7">
         <v>2012</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>219</v>
@@ -895,27 +1045,45 @@
         <v>396557.4961875453</v>
       </c>
       <c r="L8" s="3">
-        <v>87.74218988390095</v>
-      </c>
-      <c r="M8" s="1">
+        <v>86.76189291082824</v>
+      </c>
+      <c r="M8" s="3">
+        <v>32.20538078565799</v>
+      </c>
+      <c r="N8" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O8" s="3">
+        <v>199.8601709743299</v>
+      </c>
+      <c r="P8" s="1">
         <v>54948</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>339.1851851851852</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="1">
+        <v>351.9795170180732</v>
+      </c>
+      <c r="S8" s="1">
+        <v>31</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3266</v>
+      </c>
+      <c r="U8">
         <v>2011</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>200</v>
@@ -945,27 +1113,45 @@
         <v>396557.4961875453</v>
       </c>
       <c r="L9" s="3">
-        <v>86.73427165141923</v>
-      </c>
-      <c r="M9" s="1">
+        <v>90.34545930449829</v>
+      </c>
+      <c r="M9" s="3">
+        <v>67.62639234759273</v>
+      </c>
+      <c r="N9" s="3">
+        <v>32.2694534583262</v>
+      </c>
+      <c r="O9" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="P9" s="1">
         <v>51967</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>371.1928571428571</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="1">
+        <v>416.4698145405411</v>
+      </c>
+      <c r="S9" s="1">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3266</v>
+      </c>
+      <c r="U9">
         <v>2012</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>276</v>
@@ -995,27 +1181,45 @@
         <v>161153.6281071717</v>
       </c>
       <c r="L10" s="3">
-        <v>91.18905604074934</v>
-      </c>
-      <c r="M10" s="1">
+        <v>96.01288922432792</v>
+      </c>
+      <c r="M10" s="3">
+        <v>67.13300946444733</v>
+      </c>
+      <c r="N10" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O10" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="P10" s="1">
         <v>38102</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>242.687898089172</v>
       </c>
-      <c r="O10">
+      <c r="R10" s="1">
+        <v>251.542596013111</v>
+      </c>
+      <c r="S10" s="1">
+        <v>11</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1588</v>
+      </c>
+      <c r="U10">
         <v>2012</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>122</v>
@@ -1045,27 +1249,45 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L11" s="3">
-        <v>89.17110346557384</v>
-      </c>
-      <c r="M11" s="1">
+        <v>81.01947145980097</v>
+      </c>
+      <c r="M11" s="3">
+        <v>26.64100216145226</v>
+      </c>
+      <c r="N11" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O11" s="3">
+        <v>172.1642729447236</v>
+      </c>
+      <c r="P11" s="1">
         <v>42155</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>390.3240740740741</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="1">
+        <v>706.124751741857</v>
+      </c>
+      <c r="S11" s="1">
+        <v>12</v>
+      </c>
+      <c r="T11" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U11">
         <v>2013</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>122</v>
@@ -1095,27 +1317,45 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L12" s="3">
-        <v>89.17110346557384</v>
-      </c>
-      <c r="M12" s="1">
+        <v>81.01947145980097</v>
+      </c>
+      <c r="M12" s="3">
+        <v>26.64100216145226</v>
+      </c>
+      <c r="N12" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O12" s="3">
+        <v>172.1642729447236</v>
+      </c>
+      <c r="P12" s="1">
         <v>42155</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12" s="1">
         <v>390.3240740740741</v>
       </c>
-      <c r="O12">
+      <c r="R12" s="1">
+        <v>706.124751741857</v>
+      </c>
+      <c r="S12" s="1">
+        <v>12</v>
+      </c>
+      <c r="T12" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U12">
         <v>2013</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>284</v>
@@ -1145,27 +1385,45 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L13" s="3">
-        <v>91.74154684374953</v>
-      </c>
-      <c r="M13" s="1">
+        <v>91.15737775390478</v>
+      </c>
+      <c r="M13" s="3">
+        <v>33.38796883158906</v>
+      </c>
+      <c r="N13" s="3">
+        <v>35.29658989882071</v>
+      </c>
+      <c r="O13" s="3">
+        <v>234.8710142410997</v>
+      </c>
+      <c r="P13" s="1">
         <v>61093</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>303.9452736318408</v>
       </c>
-      <c r="O13">
+      <c r="R13" s="1">
+        <v>494.1239844310836</v>
+      </c>
+      <c r="S13" s="1">
+        <v>26</v>
+      </c>
+      <c r="T13" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U13">
         <v>2012</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>82</v>
@@ -1195,27 +1453,45 @@
         <v>264456.5194757923</v>
       </c>
       <c r="L14" s="3">
-        <v>89.66360561945585</v>
-      </c>
-      <c r="M14" s="1">
+        <v>88.86048522662777</v>
+      </c>
+      <c r="M14" s="3">
+        <v>39.11867998547866</v>
+      </c>
+      <c r="N14" s="3">
+        <v>37.30506273801686</v>
+      </c>
+      <c r="O14" s="3">
+        <v>245.6155654729304</v>
+      </c>
+      <c r="P14" s="1">
         <v>17873</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>308.1551724137931</v>
       </c>
-      <c r="O14">
+      <c r="R14" s="1">
+        <v>327.6476927842036</v>
+      </c>
+      <c r="S14" s="1">
+        <v>8</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1539</v>
+      </c>
+      <c r="U14">
         <v>2013</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>140</v>
@@ -1245,27 +1521,45 @@
         <v>264585.9073482947</v>
       </c>
       <c r="L15" s="3">
-        <v>110.2975973828001</v>
-      </c>
-      <c r="M15" s="1">
+        <v>103.6833090125289</v>
+      </c>
+      <c r="M15" s="3">
+        <v>51.99423496130147</v>
+      </c>
+      <c r="N15" s="3">
+        <v>36.80839302979295</v>
+      </c>
+      <c r="O15" s="3">
+        <v>323.2845357010965</v>
+      </c>
+      <c r="P15" s="1">
         <v>38250</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <v>394.3298969072165</v>
       </c>
-      <c r="O15">
+      <c r="R15" s="1">
+        <v>391.0591046986345</v>
+      </c>
+      <c r="S15" s="1">
+        <v>29</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1711</v>
+      </c>
+      <c r="U15">
         <v>2012</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>240</v>
@@ -1295,27 +1589,45 @@
         <v>215281.2939270826</v>
       </c>
       <c r="L16" s="3">
-        <v>96.01937043276359</v>
-      </c>
-      <c r="M16" s="1">
+        <v>95.62742936226397</v>
+      </c>
+      <c r="M16" s="3">
+        <v>44.41979710275996</v>
+      </c>
+      <c r="N16" s="3">
+        <v>33.80063482849972</v>
+      </c>
+      <c r="O16" s="3">
+        <v>362.0414364166904</v>
+      </c>
+      <c r="P16" s="1">
         <v>51893</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16" s="1">
         <v>336.9675324675325</v>
       </c>
-      <c r="O16">
+      <c r="R16" s="1">
+        <v>298.7578952675915</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1588</v>
+      </c>
+      <c r="U16">
         <v>2012</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>35</v>
@@ -1345,27 +1657,45 @@
         <v>123112.7022480959</v>
       </c>
       <c r="L17" s="3">
-        <v>82.2979860710347</v>
-      </c>
-      <c r="M17" s="1">
+        <v>88.50596984923921</v>
+      </c>
+      <c r="M17" s="3">
+        <v>44.08134994103607</v>
+      </c>
+      <c r="N17" s="3">
+        <v>46.83761258476419</v>
+      </c>
+      <c r="O17" s="3">
+        <v>245.6155654729304</v>
+      </c>
+      <c r="P17" s="1">
         <v>7569</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17" s="1">
         <v>315.375</v>
       </c>
-      <c r="O17">
+      <c r="R17" s="1">
+        <v>313.5216257016551</v>
+      </c>
+      <c r="S17" s="1">
+        <v>51</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1489</v>
+      </c>
+      <c r="U17">
         <v>2013</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>360</v>
@@ -1395,27 +1725,45 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L18" s="3">
-        <v>87.50944228358395</v>
-      </c>
-      <c r="M18" s="1">
+        <v>87.04136070513805</v>
+      </c>
+      <c r="M18" s="3">
+        <v>35.12732957218113</v>
+      </c>
+      <c r="N18" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O18" s="3">
+        <v>301.8203940790075</v>
+      </c>
+      <c r="P18" s="1">
         <v>75649</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18" s="1">
         <v>358.5260663507109</v>
       </c>
-      <c r="O18">
+      <c r="R18" s="1">
+        <v>555.7348485891068</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U18">
         <v>2012</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
@@ -1445,27 +1793,45 @@
         <v>29349.35154822051</v>
       </c>
       <c r="L19" s="3">
-        <v>72.47879000332269</v>
-      </c>
-      <c r="M19" s="1">
+        <v>75.00500439706998</v>
+      </c>
+      <c r="M19" s="3">
+        <v>43.45490371809562</v>
+      </c>
+      <c r="N19" s="3">
+        <v>32.2694534583262</v>
+      </c>
+      <c r="O19" s="3">
+        <v>185.9579322823807</v>
+      </c>
+      <c r="P19" s="1">
         <v>2243</v>
       </c>
-      <c r="N19" s="1">
+      <c r="Q19" s="1">
         <v>186.9166666666667</v>
       </c>
-      <c r="O19">
+      <c r="R19" s="1">
+        <v>124.1256389406485</v>
+      </c>
+      <c r="S19" s="1">
+        <v>11</v>
+      </c>
+      <c r="T19" s="1">
+        <v>411</v>
+      </c>
+      <c r="U19">
         <v>2013</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>496</v>
@@ -1495,27 +1861,45 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L20" s="3">
-        <v>87.3015904523896</v>
-      </c>
-      <c r="M20" s="1">
+        <v>91.19226916374137</v>
+      </c>
+      <c r="M20" s="3">
+        <v>57.41534544136429</v>
+      </c>
+      <c r="N20" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O20" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="P20" s="1">
         <v>108579</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>332.045871559633</v>
       </c>
-      <c r="O20">
+      <c r="R20" s="1">
+        <v>527.8918493761878</v>
+      </c>
+      <c r="S20" s="1">
+        <v>16</v>
+      </c>
+      <c r="T20" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U20">
         <v>2012</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>119</v>
@@ -1545,27 +1929,45 @@
         <v>136747.5985390203</v>
       </c>
       <c r="L21" s="3">
-        <v>82.97112949625762</v>
-      </c>
-      <c r="M21" s="1">
+        <v>83.093358381024</v>
+      </c>
+      <c r="M21" s="3">
+        <v>29.94469803232121</v>
+      </c>
+      <c r="N21" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O21" s="3">
+        <v>194.2230576381307</v>
+      </c>
+      <c r="P21" s="1">
         <v>25369</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21" s="1">
         <v>285.0449438202247</v>
       </c>
-      <c r="O21">
+      <c r="R21" s="1">
+        <v>251.1921534544801</v>
+      </c>
+      <c r="S21" s="1">
+        <v>38</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1547</v>
+      </c>
+      <c r="U21">
         <v>2012</v>
       </c>
-      <c r="P21">
+      <c r="V21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>164</v>
@@ -1595,18 +1997,36 @@
         <v>161153.6281071717</v>
       </c>
       <c r="L22" s="3">
-        <v>81.11912441944573</v>
-      </c>
-      <c r="M22" s="1">
+        <v>82.11629402200307</v>
+      </c>
+      <c r="M22" s="3">
+        <v>32.47932839143289</v>
+      </c>
+      <c r="N22" s="3">
+        <v>32.2694534583262</v>
+      </c>
+      <c r="O22" s="3">
+        <v>245.6155654729304</v>
+      </c>
+      <c r="P22" s="1">
         <v>28547</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>254.8839285714286</v>
       </c>
-      <c r="O22">
+      <c r="R22" s="1">
+        <v>226.6887672930878</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1588</v>
+      </c>
+      <c r="U22">
         <v>2012</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/aon-mencoes.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/aon-mencoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -508,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,14 +542,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -601,13 +621,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>67</v>
@@ -622,60 +657,75 @@
         <v>0.9104477611940298</v>
       </c>
       <c r="G2" s="3">
+        <v>977628.1693299442</v>
+      </c>
+      <c r="H2" s="3">
+        <v>16026.69130049089</v>
+      </c>
+      <c r="I2" s="3">
+        <v>15355.1749552493</v>
+      </c>
+      <c r="J2" s="3">
+        <v>42.23671664602042</v>
+      </c>
+      <c r="K2" s="3">
+        <v>80687.35013615266</v>
+      </c>
+      <c r="L2" s="3">
         <v>3045252.806306844</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>49922.17715257122</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>101183.4689374139</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>2944.086470789134</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L2" s="3">
-        <v>78.57672143399174</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="Q2" s="3">
+        <v>78.57672143399171</v>
+      </c>
+      <c r="R2" s="3">
         <v>23.63877229505447</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>32.2694534583262</v>
       </c>
-      <c r="O2" s="3">
+      <c r="T2" s="3">
         <v>151.1292159501072</v>
       </c>
-      <c r="P2" s="1">
+      <c r="U2" s="1">
         <v>35293</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="V2" s="1">
         <v>578.5737704918033</v>
       </c>
-      <c r="R2" s="1">
-        <v>929.9762624034444</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="W2" s="1">
+        <v>929.9762624034443</v>
+      </c>
+      <c r="X2" s="1">
         <v>55</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Y2" s="1">
         <v>6494</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2013</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>156</v>
@@ -690,60 +740,75 @@
         <v>0.8076923076923077</v>
       </c>
       <c r="G3" s="3">
+        <v>1813305.601067862</v>
+      </c>
+      <c r="H3" s="3">
+        <v>14391.31429418938</v>
+      </c>
+      <c r="I3" s="3">
+        <v>11119.732557083</v>
+      </c>
+      <c r="J3" s="3">
+        <v>42.23671664602042</v>
+      </c>
+      <c r="K3" s="3">
+        <v>55735.34170583249</v>
+      </c>
+      <c r="L3" s="3">
         <v>2860818.438596986</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>22704.90824283323</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>20582.18081328499</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>1720.659275370021</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>154365.9837040891</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>87.11000777143747</v>
       </c>
-      <c r="M3" s="3">
-        <v>35.07795799700576</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="R3" s="3">
+        <v>35.07795799700575</v>
+      </c>
+      <c r="S3" s="3">
         <v>33.80063482849972</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>257.7853211115706</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>34535</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>274.0873015873016</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>239.4804716828918</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>36</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>1815</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2014</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>400</v>
@@ -758,60 +823,75 @@
         <v>0.6125</v>
       </c>
       <c r="G4" s="3">
+        <v>3843970.611475558</v>
+      </c>
+      <c r="H4" s="3">
+        <v>15689.67596520636</v>
+      </c>
+      <c r="I4" s="3">
+        <v>13938.17829213281</v>
+      </c>
+      <c r="J4" s="3">
+        <v>46.0955346895702</v>
+      </c>
+      <c r="K4" s="3">
+        <v>90296.98821183784</v>
+      </c>
+      <c r="L4" s="3">
         <v>6532941.879185004</v>
       </c>
-      <c r="H4" s="3">
+      <c r="M4" s="3">
         <v>26665.06889463267</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>27722.17615151563</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>787.1021772339901</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>163173.270269744</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3">
         <v>95.92481440598637</v>
       </c>
-      <c r="M4" s="3">
+      <c r="R4" s="3">
         <v>62.28205825061158</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>70527</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>287.865306122449</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>263.6097661931087</v>
       </c>
-      <c r="S4" s="1">
+      <c r="X4" s="1">
         <v>11</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>1588</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2012</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>123</v>
@@ -826,60 +906,75 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5" s="3">
+        <v>1450411.36340484</v>
+      </c>
+      <c r="H5" s="3">
+        <v>17687.94345615658</v>
+      </c>
+      <c r="I5" s="3">
+        <v>12659.37731284685</v>
+      </c>
+      <c r="J5" s="3">
+        <v>581.4676024610689</v>
+      </c>
+      <c r="K5" s="3">
+        <v>56996.31034340258</v>
+      </c>
+      <c r="L5" s="3">
         <v>2306077.727819387</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>28122.89911974862</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>23954.88805282878</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>1990.9450708267</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>125535.7448333134</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>94.90136016654937</v>
       </c>
-      <c r="M5" s="3">
-        <v>42.06922775736284</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="R5" s="3">
+        <v>42.06922775736285</v>
+      </c>
+      <c r="S5" s="3">
         <v>37.30506273801686</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>323.2845357010965</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>25810</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>314.7560975609756</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>268.2786261681259</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>22</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>1539</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2012</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>279</v>
@@ -894,60 +989,75 @@
         <v>0.6451612903225806</v>
       </c>
       <c r="G6" s="3">
+        <v>2889393.356410498</v>
+      </c>
+      <c r="H6" s="3">
+        <v>16052.18531339165</v>
+      </c>
+      <c r="I6" s="3">
+        <v>15204.65901200175</v>
+      </c>
+      <c r="J6" s="3">
+        <v>46.0955346895702</v>
+      </c>
+      <c r="K6" s="3">
+        <v>108739.6962410123</v>
+      </c>
+      <c r="L6" s="3">
         <v>4816835.598395908</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>26760.19776886616</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>30295.08564925056</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>94.898114598278</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>264585.9073482947</v>
       </c>
-      <c r="L6" s="3">
-        <v>88.02163529111277</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="Q6" s="3">
+        <v>88.02163529111279</v>
+      </c>
+      <c r="R6" s="3">
         <v>33.79527781109714</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="3">
         <v>23.15006403629383</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>213.9734252018395</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>54018</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>300.1</v>
       </c>
-      <c r="R6" s="1">
+      <c r="W6" s="1">
         <v>283.7555817382237</v>
       </c>
-      <c r="S6" s="1">
+      <c r="X6" s="1">
         <v>3</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>1711</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2012</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>296</v>
@@ -962,60 +1072,75 @@
         <v>0.6047297297297297</v>
       </c>
       <c r="G7" s="3">
+        <v>2913046.55460606</v>
+      </c>
+      <c r="H7" s="3">
+        <v>16274.00309835788</v>
+      </c>
+      <c r="I7" s="3">
+        <v>15989.70655768705</v>
+      </c>
+      <c r="J7" s="3">
+        <v>36.54227329736327</v>
+      </c>
+      <c r="K7" s="3">
+        <v>161766.7445280041</v>
+      </c>
+      <c r="L7" s="3">
         <v>5401646.146659081</v>
       </c>
-      <c r="H7" s="3">
+      <c r="M7" s="3">
         <v>30176.79411541386</v>
       </c>
-      <c r="I7" s="3">
+      <c r="N7" s="3">
         <v>46623.43714083682</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>54.53892516702949</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>537544.5528256212</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
         <v>94.68234986858575</v>
       </c>
-      <c r="M7" s="3">
+      <c r="R7" s="3">
         <v>69.67419713686293</v>
       </c>
-      <c r="N7" s="3">
+      <c r="S7" s="3">
         <v>30.56837093393595</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <v>61529</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="V7" s="1">
         <v>343.7374301675978</v>
       </c>
-      <c r="R7" s="1">
-        <v>493.6165473708339</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="W7" s="1">
+        <v>493.6165473708338</v>
+      </c>
+      <c r="X7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="1">
         <v>5879</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>2012</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>219</v>
@@ -1030,60 +1155,75 @@
         <v>0.7397260273972602</v>
       </c>
       <c r="G8" s="3">
+        <v>2877869.606750216</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17764.62720216183</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14343.05735268217</v>
+      </c>
+      <c r="J8" s="3">
+        <v>581.4676024610689</v>
+      </c>
+      <c r="K8" s="3">
+        <v>69598.05259494043</v>
+      </c>
+      <c r="L8" s="3">
         <v>4821257.849740589</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>29760.85092432462</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>38181.97911034847</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>1405.425637867093</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>396557.4961875453</v>
       </c>
-      <c r="L8" s="3">
-        <v>86.76189291082824</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
+        <v>86.76189291082827</v>
+      </c>
+      <c r="R8" s="3">
         <v>32.20538078565799</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>199.8601709743299</v>
       </c>
-      <c r="P8" s="1">
+      <c r="U8" s="1">
         <v>54948</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="V8" s="1">
         <v>339.1851851851852</v>
       </c>
-      <c r="R8" s="1">
-        <v>351.9795170180732</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="W8" s="1">
+        <v>351.9795170180731</v>
+      </c>
+      <c r="X8" s="1">
         <v>31</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="1">
         <v>3266</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>2011</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>200</v>
@@ -1098,60 +1238,75 @@
         <v>0.7</v>
       </c>
       <c r="G9" s="3">
+        <v>2437211.504898871</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17408.65360642051</v>
+      </c>
+      <c r="I9" s="3">
+        <v>15775.78112826647</v>
+      </c>
+      <c r="J9" s="3">
+        <v>581.4676024610689</v>
+      </c>
+      <c r="K9" s="3">
+        <v>108739.6962410123</v>
+      </c>
+      <c r="L9" s="3">
         <v>4507319.894909304</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>32195.14210649503</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>45455.39030881756</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>1081.472570086762</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>396557.4961875453</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>90.34545930449829</v>
       </c>
-      <c r="M9" s="3">
-        <v>67.62639234759273</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
+        <v>67.62639234759274</v>
+      </c>
+      <c r="S9" s="3">
         <v>32.2694534583262</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="P9" s="1">
+      <c r="U9" s="1">
         <v>51967</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="V9" s="1">
         <v>371.1928571428571</v>
       </c>
-      <c r="R9" s="1">
+      <c r="W9" s="1">
         <v>416.4698145405411</v>
       </c>
-      <c r="S9" s="1">
+      <c r="X9" s="1">
         <v>17</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="1">
         <v>3266</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>2012</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>276</v>
@@ -1166,60 +1321,75 @@
         <v>0.5688405797101449</v>
       </c>
       <c r="G10" s="3">
+        <v>2151113.508546637</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13701.35992704865</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11910.51117443176</v>
+      </c>
+      <c r="J10" s="3">
+        <v>37.27723939925197</v>
+      </c>
+      <c r="K10" s="3">
+        <v>75629.89320643686</v>
+      </c>
+      <c r="L10" s="3">
         <v>3474485.413264631</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>22130.48033926517</v>
       </c>
-      <c r="I10" s="3">
-        <v>25554.86463253136</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
+        <v>25554.86463253137</v>
+      </c>
+      <c r="O10" s="3">
         <v>989.6825900594964</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>161153.6281071717</v>
       </c>
-      <c r="L10" s="3">
-        <v>96.01288922432792</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
+        <v>96.01288922432791</v>
+      </c>
+      <c r="R10" s="3">
         <v>67.13300946444733</v>
       </c>
-      <c r="N10" s="3">
+      <c r="S10" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="P10" s="1">
+      <c r="U10" s="1">
         <v>38102</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="V10" s="1">
         <v>242.687898089172</v>
       </c>
-      <c r="R10" s="1">
+      <c r="W10" s="1">
         <v>251.542596013111</v>
       </c>
-      <c r="S10" s="1">
+      <c r="X10" s="1">
         <v>11</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="1">
         <v>1588</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>2012</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>122</v>
@@ -1234,60 +1404,75 @@
         <v>0.8852459016393442</v>
       </c>
       <c r="G11" s="3">
+        <v>1767446.738066283</v>
+      </c>
+      <c r="H11" s="3">
+        <v>16365.2475746878</v>
+      </c>
+      <c r="I11" s="3">
+        <v>15020.37511858589</v>
+      </c>
+      <c r="J11" s="3">
+        <v>48.64081861861322</v>
+      </c>
+      <c r="K11" s="3">
+        <v>80687.35013615266</v>
+      </c>
+      <c r="L11" s="3">
         <v>3759007.866591265</v>
       </c>
-      <c r="H11" s="3">
-        <v>34805.62839436356</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="M11" s="3">
+        <v>34805.62839436357</v>
+      </c>
+      <c r="N11" s="3">
         <v>76815.19294381328</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="3">
         <v>787.1021772339901</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L11" s="3">
-        <v>81.01947145980097</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="Q11" s="3">
+        <v>81.01947145980095</v>
+      </c>
+      <c r="R11" s="3">
         <v>26.64100216145226</v>
       </c>
-      <c r="N11" s="3">
+      <c r="S11" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>172.1642729447236</v>
       </c>
-      <c r="P11" s="1">
+      <c r="U11" s="1">
         <v>42155</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="V11" s="1">
         <v>390.3240740740741</v>
       </c>
-      <c r="R11" s="1">
+      <c r="W11" s="1">
         <v>706.124751741857</v>
       </c>
-      <c r="S11" s="1">
+      <c r="X11" s="1">
         <v>12</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="1">
         <v>6494</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>2013</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>122</v>
@@ -1302,60 +1487,75 @@
         <v>0.8852459016393442</v>
       </c>
       <c r="G12" s="3">
+        <v>1767446.738066283</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16365.2475746878</v>
+      </c>
+      <c r="I12" s="3">
+        <v>15020.37511858589</v>
+      </c>
+      <c r="J12" s="3">
+        <v>48.64081861861322</v>
+      </c>
+      <c r="K12" s="3">
+        <v>80687.35013615266</v>
+      </c>
+      <c r="L12" s="3">
         <v>3759007.866591265</v>
       </c>
-      <c r="H12" s="3">
-        <v>34805.62839436356</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
+        <v>34805.62839436357</v>
+      </c>
+      <c r="N12" s="3">
         <v>76815.19294381328</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="3">
         <v>787.1021772339901</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L12" s="3">
-        <v>81.01947145980097</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="Q12" s="3">
+        <v>81.01947145980095</v>
+      </c>
+      <c r="R12" s="3">
         <v>26.64100216145226</v>
       </c>
-      <c r="N12" s="3">
+      <c r="S12" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O12" s="3">
+      <c r="T12" s="3">
         <v>172.1642729447236</v>
       </c>
-      <c r="P12" s="1">
+      <c r="U12" s="1">
         <v>42155</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="V12" s="1">
         <v>390.3240740740741</v>
       </c>
-      <c r="R12" s="1">
+      <c r="W12" s="1">
         <v>706.124751741857</v>
       </c>
-      <c r="S12" s="1">
+      <c r="X12" s="1">
         <v>12</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Y12" s="1">
         <v>6494</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>2013</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>284</v>
@@ -1370,60 +1570,75 @@
         <v>0.7077464788732394</v>
       </c>
       <c r="G13" s="3">
+        <v>3088098.904984239</v>
+      </c>
+      <c r="H13" s="3">
+        <v>15363.6761442002</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12948.34815541951</v>
+      </c>
+      <c r="J13" s="3">
+        <v>42.23671664602042</v>
+      </c>
+      <c r="K13" s="3">
+        <v>80687.35013615266</v>
+      </c>
+      <c r="L13" s="3">
         <v>5604766.32132519</v>
       </c>
-      <c r="H13" s="3">
+      <c r="M13" s="3">
         <v>27884.40955883179</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>51240.25465965582</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>1411.863595952828</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Q13" s="3">
         <v>91.15737775390478</v>
       </c>
-      <c r="M13" s="3">
+      <c r="R13" s="3">
         <v>33.38796883158906</v>
       </c>
-      <c r="N13" s="3">
+      <c r="S13" s="3">
         <v>35.29658989882071</v>
       </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
         <v>234.8710142410997</v>
       </c>
-      <c r="P13" s="1">
+      <c r="U13" s="1">
         <v>61093</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="V13" s="1">
         <v>303.9452736318408</v>
       </c>
-      <c r="R13" s="1">
+      <c r="W13" s="1">
         <v>494.1239844310836</v>
       </c>
-      <c r="S13" s="1">
+      <c r="X13" s="1">
         <v>26</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="1">
         <v>6494</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>2012</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>82</v>
@@ -1438,60 +1653,75 @@
         <v>0.7073170731707317</v>
       </c>
       <c r="G14" s="3">
+        <v>995808.606838751</v>
+      </c>
+      <c r="H14" s="3">
+        <v>17169.11391101295</v>
+      </c>
+      <c r="I14" s="3">
+        <v>26103.47539225292</v>
+      </c>
+      <c r="J14" s="3">
+        <v>508.3024035213455</v>
+      </c>
+      <c r="K14" s="3">
+        <v>189313.7035611726</v>
+      </c>
+      <c r="L14" s="3">
         <v>1602557.623236534</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>27630.30384890577</v>
       </c>
-      <c r="I14" s="3">
-        <v>38892.54053994336</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
+        <v>38892.54053994337</v>
+      </c>
+      <c r="O14" s="3">
         <v>721.7894130003107</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>264456.5194757923</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="3">
         <v>88.86048522662777</v>
       </c>
-      <c r="M14" s="3">
+      <c r="R14" s="3">
         <v>39.11867998547866</v>
       </c>
-      <c r="N14" s="3">
+      <c r="S14" s="3">
         <v>37.30506273801686</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>245.6155654729304</v>
       </c>
-      <c r="P14" s="1">
+      <c r="U14" s="1">
         <v>17873</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="V14" s="1">
         <v>308.1551724137931</v>
       </c>
-      <c r="R14" s="1">
+      <c r="W14" s="1">
         <v>327.6476927842036</v>
       </c>
-      <c r="S14" s="1">
+      <c r="X14" s="1">
         <v>8</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="1">
         <v>1539</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>2013</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>140</v>
@@ -1506,60 +1736,75 @@
         <v>0.6928571428571428</v>
       </c>
       <c r="G15" s="3">
+        <v>2360339.13624268</v>
+      </c>
+      <c r="H15" s="3">
+        <v>24333.39315714103</v>
+      </c>
+      <c r="I15" s="3">
+        <v>29842.69496244536</v>
+      </c>
+      <c r="J15" s="3">
+        <v>581.4676024610689</v>
+      </c>
+      <c r="K15" s="3">
+        <v>189313.7035611726</v>
+      </c>
+      <c r="L15" s="3">
         <v>4218883.099892105</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
         <v>43493.64020507325</v>
       </c>
-      <c r="I15" s="3">
-        <v>57897.47966668471</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
+        <v>57897.4796666847</v>
+      </c>
+      <c r="O15" s="3">
         <v>1405.425637867093</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>264585.9073482947</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="3">
         <v>103.6833090125289</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="3">
         <v>51.99423496130147</v>
       </c>
-      <c r="N15" s="3">
+      <c r="S15" s="3">
         <v>36.80839302979295</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>323.2845357010965</v>
       </c>
-      <c r="P15" s="1">
+      <c r="U15" s="1">
         <v>38250</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="V15" s="1">
         <v>394.3298969072165</v>
       </c>
-      <c r="R15" s="1">
+      <c r="W15" s="1">
         <v>391.0591046986345</v>
       </c>
-      <c r="S15" s="1">
+      <c r="X15" s="1">
         <v>29</v>
       </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="1">
         <v>1711</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>2012</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
         <v>240</v>
@@ -1574,60 +1819,75 @@
         <v>0.6416666666666667</v>
       </c>
       <c r="G16" s="3">
-        <v>4982733.189867401</v>
+        <v>3015810.053785319</v>
       </c>
       <c r="H16" s="3">
+        <v>19583.18216743714</v>
+      </c>
+      <c r="I16" s="3">
+        <v>18411.27941013444</v>
+      </c>
+      <c r="J16" s="3">
+        <v>33.25544217501798</v>
+      </c>
+      <c r="K16" s="3">
+        <v>124473.301135828</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4982733.189867402</v>
+      </c>
+      <c r="M16" s="3">
         <v>32355.4103238143</v>
       </c>
-      <c r="I16" s="3">
+      <c r="N16" s="3">
         <v>34162.57496563493</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="3">
         <v>54.53892516702949</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="3">
         <v>215281.2939270826</v>
       </c>
-      <c r="L16" s="3">
-        <v>95.62742936226397</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="Q16" s="3">
+        <v>95.62742936226395</v>
+      </c>
+      <c r="R16" s="3">
         <v>44.41979710275996</v>
       </c>
-      <c r="N16" s="3">
+      <c r="S16" s="3">
         <v>33.80063482849972</v>
       </c>
-      <c r="O16" s="3">
+      <c r="T16" s="3">
         <v>362.0414364166904</v>
       </c>
-      <c r="P16" s="1">
+      <c r="U16" s="1">
         <v>51893</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="V16" s="1">
         <v>336.9675324675325</v>
       </c>
-      <c r="R16" s="1">
+      <c r="W16" s="1">
         <v>298.7578952675915</v>
       </c>
-      <c r="S16" s="1">
+      <c r="X16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="1">
+      <c r="Y16" s="1">
         <v>1588</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>2012</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
         <v>35</v>
@@ -1642,60 +1902,75 @@
         <v>0.6857142857142857</v>
       </c>
       <c r="G17" s="3">
-        <v>622913.4565716616</v>
+        <v>395699.9160242468</v>
       </c>
       <c r="H17" s="3">
-        <v>25954.72735715257</v>
+        <v>16487.49650101029</v>
       </c>
       <c r="I17" s="3">
+        <v>17640.91248848443</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2154.327828858093</v>
+      </c>
+      <c r="K17" s="3">
+        <v>80883.37226400203</v>
+      </c>
+      <c r="L17" s="3">
+        <v>622913.4565716615</v>
+      </c>
+      <c r="M17" s="3">
+        <v>25954.72735715256</v>
+      </c>
+      <c r="N17" s="3">
         <v>26184.67661836704</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>3366.13723259077</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>123112.7022480959</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>88.50596984923921</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>44.08134994103607</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>46.83761258476419</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>245.6155654729304</v>
       </c>
-      <c r="P17" s="1">
+      <c r="U17" s="1">
         <v>7569</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="V17" s="1">
         <v>315.375</v>
       </c>
-      <c r="R17" s="1">
+      <c r="W17" s="1">
         <v>313.5216257016551</v>
       </c>
-      <c r="S17" s="1">
+      <c r="X17" s="1">
         <v>51</v>
       </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="1">
         <v>1489</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>2013</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
         <v>360</v>
@@ -1710,60 +1985,75 @@
         <v>0.5861111111111111</v>
       </c>
       <c r="G18" s="3">
+        <v>3365446.42902772</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15949.98307596076</v>
+      </c>
+      <c r="I18" s="3">
+        <v>14649.20391339148</v>
+      </c>
+      <c r="J18" s="3">
+        <v>46.0955346895702</v>
+      </c>
+      <c r="K18" s="3">
+        <v>108739.6962410123</v>
+      </c>
+      <c r="L18" s="3">
         <v>6620001.799310843</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>31374.41611047793</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>59614.08605582522</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>322.2027789591561</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>87.04136070513805</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="3">
         <v>35.12732957218113</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>301.8203940790075</v>
       </c>
-      <c r="P18" s="1">
+      <c r="U18" s="1">
         <v>75649</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="V18" s="1">
         <v>358.5260663507109</v>
       </c>
-      <c r="R18" s="1">
+      <c r="W18" s="1">
         <v>555.7348485891068</v>
       </c>
-      <c r="S18" s="1">
+      <c r="X18" s="1">
         <v>4</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="1">
         <v>6494</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>2012</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
@@ -1778,60 +2068,75 @@
         <v>0.75</v>
       </c>
       <c r="G19" s="3">
+        <v>111483.853471615</v>
+      </c>
+      <c r="H19" s="3">
+        <v>9290.321122634581</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7713.648790120884</v>
+      </c>
+      <c r="J19" s="3">
+        <v>36.54227329736327</v>
+      </c>
+      <c r="K19" s="3">
+        <v>23191.0585294424</v>
+      </c>
+      <c r="L19" s="3">
         <v>162569.9259774528</v>
       </c>
-      <c r="H19" s="3">
+      <c r="M19" s="3">
         <v>13547.4938314544</v>
       </c>
-      <c r="I19" s="3">
+      <c r="N19" s="3">
         <v>10287.95417495333</v>
       </c>
-      <c r="J19" s="3">
+      <c r="O19" s="3">
         <v>459.3885785954238</v>
       </c>
-      <c r="K19" s="3">
+      <c r="P19" s="3">
         <v>29349.35154822051</v>
       </c>
-      <c r="L19" s="3">
+      <c r="Q19" s="3">
         <v>75.00500439706998</v>
       </c>
-      <c r="M19" s="3">
+      <c r="R19" s="3">
         <v>43.45490371809562</v>
       </c>
-      <c r="N19" s="3">
+      <c r="S19" s="3">
         <v>32.2694534583262</v>
       </c>
-      <c r="O19" s="3">
+      <c r="T19" s="3">
         <v>185.9579322823807</v>
       </c>
-      <c r="P19" s="1">
+      <c r="U19" s="1">
         <v>2243</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="V19" s="1">
         <v>186.9166666666667</v>
       </c>
-      <c r="R19" s="1">
+      <c r="W19" s="1">
         <v>124.1256389406485</v>
       </c>
-      <c r="S19" s="1">
+      <c r="X19" s="1">
         <v>11</v>
       </c>
-      <c r="T19" s="1">
+      <c r="Y19" s="1">
         <v>411</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <v>2013</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <v>496</v>
@@ -1846,60 +2151,75 @@
         <v>0.6592741935483871</v>
       </c>
       <c r="G20" s="3">
+        <v>5282409.172792617</v>
+      </c>
+      <c r="H20" s="3">
+        <v>16154.15649172054</v>
+      </c>
+      <c r="I20" s="3">
+        <v>14142.85920624876</v>
+      </c>
+      <c r="J20" s="3">
+        <v>46.0955346895702</v>
+      </c>
+      <c r="K20" s="3">
+        <v>80687.35013615266</v>
+      </c>
+      <c r="L20" s="3">
         <v>9479119.38973001</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>28988.13269030584</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>51783.64819049771</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>787.1021772339901</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>91.19226916374137</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>57.41534544136429</v>
       </c>
-      <c r="N20" s="3">
+      <c r="S20" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="P20" s="1">
+      <c r="U20" s="1">
         <v>108579</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="V20" s="1">
         <v>332.045871559633</v>
       </c>
-      <c r="R20" s="1">
-        <v>527.8918493761878</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="W20" s="1">
+        <v>527.8918493761877</v>
+      </c>
+      <c r="X20" s="1">
         <v>16</v>
       </c>
-      <c r="T20" s="1">
+      <c r="Y20" s="1">
         <v>6494</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>2012</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>119</v>
@@ -1914,60 +2234,75 @@
         <v>0.7478991596638656</v>
       </c>
       <c r="G21" s="3">
+        <v>1277366.271803016</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14352.43002025861</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10939.95093953164</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2533.16934859567</v>
+      </c>
+      <c r="K21" s="3">
+        <v>54418.20143579776</v>
+      </c>
+      <c r="L21" s="3">
         <v>2104894.58419056</v>
       </c>
-      <c r="H21" s="3">
-        <v>23650.50094596134</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
+        <v>23650.50094596135</v>
+      </c>
+      <c r="N21" s="3">
         <v>22257.37070968975</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>3458.599440871384</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>136747.5985390203</v>
       </c>
-      <c r="L21" s="3">
-        <v>83.093358381024</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
+        <v>83.09335838102402</v>
+      </c>
+      <c r="R21" s="3">
         <v>29.94469803232121</v>
       </c>
-      <c r="N21" s="3">
+      <c r="S21" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>194.2230576381307</v>
       </c>
-      <c r="P21" s="1">
+      <c r="U21" s="1">
         <v>25369</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="V21" s="1">
         <v>285.0449438202247</v>
       </c>
-      <c r="R21" s="1">
+      <c r="W21" s="1">
         <v>251.1921534544801</v>
       </c>
-      <c r="S21" s="1">
+      <c r="X21" s="1">
         <v>38</v>
       </c>
-      <c r="T21" s="1">
+      <c r="Y21" s="1">
         <v>1547</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>2012</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <v>164</v>
@@ -1982,51 +2317,66 @@
         <v>0.6829268292682927</v>
       </c>
       <c r="G22" s="3">
+        <v>1498276.053966125</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13377.46476755469</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10427.40231413749</v>
+      </c>
+      <c r="J22" s="3">
+        <v>46.0955346895702</v>
+      </c>
+      <c r="K22" s="3">
+        <v>58146.76024610689</v>
+      </c>
+      <c r="L22" s="3">
         <v>2315707.644801917</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>20675.96111430283</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>20218.37616086783</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>54.53892516702949</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>161153.6281071717</v>
       </c>
-      <c r="L22" s="3">
-        <v>82.11629402200307</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
+        <v>82.11629402200306</v>
+      </c>
+      <c r="R22" s="3">
         <v>32.47932839143289</v>
       </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
         <v>32.2694534583262</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>245.6155654729304</v>
       </c>
-      <c r="P22" s="1">
+      <c r="U22" s="1">
         <v>28547</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="V22" s="1">
         <v>254.8839285714286</v>
       </c>
-      <c r="R22" s="1">
+      <c r="W22" s="1">
         <v>226.6887672930878</v>
       </c>
-      <c r="S22" s="1">
+      <c r="X22" s="1">
         <v>1</v>
       </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="1">
         <v>1588</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>2012</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>2023</v>
       </c>
     </row>
